--- a/费用表/保险费用表.xlsx
+++ b/费用表/保险费用表.xlsx
@@ -165,25 +165,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,80 +488,80 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2840</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <f>16700-C3</f>
         <v>13860</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1640</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D5" si="0">16700-C4</f>
-        <v>15060</v>
+      <c r="D4" s="3">
+        <f>16700-C3-C4</f>
+        <v>12220</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>3000</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>13700</v>
+      <c r="D5" s="3">
+        <f>16700-C3-C4-C5</f>
+        <v>9220</v>
       </c>
     </row>
   </sheetData>
